--- a/Organisation/To Do.xlsx
+++ b/Organisation/To Do.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aixmarseilleuniversite-my.sharepoint.com/personal/mathieu_lebrun_etu_univ-amu_fr/Documents/Documents/GitHub/Projet-PHP-S2/Organisation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="148" documentId="11_AD4D9D64A577C15A4A5418E9A89A61E45ADEDD9C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{74D7F603-8496-43F1-863A-E094DD08EADC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10580" yWindow="-1030" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,126 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">To Do </t>
+  </si>
+  <si>
+    <t>PROJET PHP</t>
+  </si>
+  <si>
+    <t>Création base de donnée :</t>
+  </si>
+  <si>
+    <t>membre</t>
+  </si>
+  <si>
+    <t>administrateur</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
+    <t>utilisateur</t>
+  </si>
+  <si>
+    <t>rôles</t>
+  </si>
+  <si>
+    <t>TABLES</t>
+  </si>
+  <si>
+    <t>ATTRIBUTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post </t>
+  </si>
+  <si>
+    <t>TYPES</t>
+  </si>
+  <si>
+    <t>photos</t>
+  </si>
+  <si>
+    <t>emoji</t>
+  </si>
+  <si>
+    <t>La page d’accueil doit présenter les caractéristiques suivantes :</t>
+  </si>
+  <si>
+    <t>− nom du service ;</t>
+  </si>
+  <si>
+    <t>− recherche par tag ;</t>
+  </si>
+  <si>
+    <t>− la liste des messages accessibles, avec marquage des tags et les attributions d’emojis ;</t>
+  </si>
+  <si>
+    <t>− pagination allant de deux en deux par défaut mais paramétrable par le super administrateur ;</t>
+  </si>
+  <si>
+    <t>− un système de connexion/déconnexion avec lien vers le compte utilisateur, lequel affiche les informations de celui-ci et la possibilité de les modifier ;</t>
+  </si>
+  <si>
+    <t>− un système de mot de passe oublié ou perdu (au choix : possibilité de réinitialiser un nouveau mot de passe et/ou par e-mail, génération automatique d’un mot de passe temporaire ou non, etc.).</t>
+  </si>
+  <si>
+    <t>Comptes utilisateurs :</t>
+  </si>
+  <si>
+    <t>− (super-) administrateur (tous les droits) : il s’agit de Vanéstarre, bien évidemment ! ;</t>
+  </si>
+  <si>
+    <t>− membre Vanéstarre (disposant d’un compte avec des privilèges limités) ;</t>
+  </si>
+  <si>
+    <t>Utilisateur(id/, nom, prenom, role)</t>
+  </si>
+  <si>
+    <t>Reaction((idUser#, idPost#)/, typeR)</t>
+  </si>
+  <si>
+    <t>Post(id#, image, message, maxReact)</t>
+  </si>
+  <si>
+    <t>Tag((id#, idPost#)/, value)</t>
+  </si>
+  <si>
+    <t>Donation((userId, postId)/, status)</t>
+  </si>
+  <si>
+    <t>Params(minN, maxN)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +166,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +203,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175151</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>379730</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74920FFF-755B-41CE-9A13-F240439A295C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="175151" y="2706370"/>
+          <a:ext cx="6052929" cy="2983230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +533,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C45:N45"/>
+    <mergeCell ref="C46:N46"/>
+    <mergeCell ref="C40:N41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:N36"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="C39:N39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>